--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD5D9E-31CD-4D87-A05B-9651AD2F6D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773AE4C0-FB04-415A-BC99-E86A60B6C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8325,13 +8325,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バッチ処理ID：BA1060101</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>取引名：期間内プロジェクト一覧出力バッチ</t>
     <rPh sb="0" eb="3">
       <t>トリヒキメイ</t>
@@ -8351,6 +8344,13 @@
     <t>対象外理由</t>
     <rPh sb="0" eb="5">
       <t>タイショウガイリユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストターゲット名：BA1060101</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9192,6 +9192,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9290,93 +9377,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10897,57 +10897,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="159" t="s">
         <v>475</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="139" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="148" t="s">
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="177" t="s">
         <v>636</v>
       </c>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="124" t="s">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="126" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="155" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="133" t="str">
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="162" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
@@ -10955,53 +10955,53 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="159" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="124" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="136" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="133" t="str">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="162" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
@@ -11009,45 +11009,45 @@
       <c r="AN2" s="22"/>
     </row>
     <row r="3" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="130" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="22"/>
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
@@ -11084,1020 +11084,1181 @@
       <c r="A7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="138"/>
+      <c r="D7" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="139"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="157" t="s">
+      <c r="H7" s="139"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="157" t="s">
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="157" t="s">
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="138"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="169"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="149"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="131"/>
+      <c r="AH9" s="131"/>
+      <c r="AI9" s="132"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="131"/>
+      <c r="AH10" s="131"/>
+      <c r="AI10" s="132"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="132"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="132"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="132"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="132"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="135"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="131"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="132"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="134"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="135"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="132"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="132"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="132"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="132"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="135"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="131"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="132"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="132"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="135"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="132"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="134"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="131"/>
+      <c r="AH23" s="131"/>
+      <c r="AI23" s="132"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="135"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="131"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="132"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="132"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="135"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="132"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="135"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="131"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="132"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="134"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="131"/>
+      <c r="AH28" s="131"/>
+      <c r="AI28" s="132"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="135"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="131"/>
+      <c r="AH29" s="131"/>
+      <c r="AI29" s="132"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="135"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="131"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="132"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="131"/>
+      <c r="AH31" s="131"/>
+      <c r="AI31" s="132"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="135"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="132"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="131"/>
+      <c r="AH33" s="131"/>
+      <c r="AI33" s="132"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12116,167 +12277,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O6" s="24" t="s">
         <v>18</v>
@@ -12346,7 +12346,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="24" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>19</v>
@@ -26030,7 +26030,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>18</v>
@@ -26080,7 +26080,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>12</v>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773AE4C0-FB04-415A-BC99-E86A60B6C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FF788-49C5-47E2-9A67-F744A634A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6437,34 +6437,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>数値項目に有効範囲の下限値＋1が入力された場合、エラーとなること。</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -8351,6 +8323,13 @@
     <t>テストターゲット名：BA1060101</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値項目に有効範囲の下限値－1が入力された場合、エラーとなること。</t>
+    <rPh sb="10" eb="12">
+      <t>カゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9192,93 +9171,6 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9377,6 +9269,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10897,57 +10876,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="159" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="168" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="130" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="177" t="s">
-        <v>636</v>
-      </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="153" t="s">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="148" t="s">
+        <v>635</v>
+      </c>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="155" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="126" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="162" t="str">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="133" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
@@ -10955,53 +10934,53 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="159" t="s">
-        <v>476</v>
-      </c>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="153" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="130" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="136" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="162" t="str">
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="133" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
@@ -11009,45 +10988,45 @@
       <c r="AN2" s="22"/>
     </row>
     <row r="3" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="159" t="s">
-        <v>478</v>
-      </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="130" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="135"/>
       <c r="AJ3" s="22"/>
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
@@ -11084,1181 +11063,1020 @@
       <c r="A7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="137" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="137" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="139"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="137" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="137" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="137" t="s">
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="138"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="158"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="149"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="168"/>
+      <c r="AH8" s="168"/>
+      <c r="AI8" s="169"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="134"/>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="132"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="183"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="183"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="184"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="180"/>
+      <c r="AH9" s="180"/>
+      <c r="AI9" s="181"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="134"/>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="132"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="183"/>
+      <c r="AA10" s="183"/>
+      <c r="AB10" s="183"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="183"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="180"/>
+      <c r="AH10" s="180"/>
+      <c r="AI10" s="181"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="131"/>
-      <c r="AH11" s="131"/>
-      <c r="AI11" s="132"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="182"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="183"/>
+      <c r="Y11" s="183"/>
+      <c r="Z11" s="183"/>
+      <c r="AA11" s="183"/>
+      <c r="AB11" s="183"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="184"/>
+      <c r="AF11" s="179"/>
+      <c r="AG11" s="180"/>
+      <c r="AH11" s="180"/>
+      <c r="AI11" s="181"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="135"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="132"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="184"/>
+      <c r="AF12" s="179"/>
+      <c r="AG12" s="180"/>
+      <c r="AH12" s="180"/>
+      <c r="AI12" s="181"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="134"/>
-      <c r="AD13" s="134"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="132"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="183"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
+      <c r="V13" s="183"/>
+      <c r="W13" s="183"/>
+      <c r="X13" s="183"/>
+      <c r="Y13" s="183"/>
+      <c r="Z13" s="183"/>
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="183"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="183"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="179"/>
+      <c r="AG13" s="180"/>
+      <c r="AH13" s="180"/>
+      <c r="AI13" s="181"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="134"/>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="132"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="183"/>
+      <c r="S14" s="183"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183"/>
+      <c r="Y14" s="183"/>
+      <c r="Z14" s="183"/>
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="183"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="179"/>
+      <c r="AG14" s="180"/>
+      <c r="AH14" s="180"/>
+      <c r="AI14" s="181"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="134"/>
-      <c r="AD15" s="134"/>
-      <c r="AE15" s="135"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="132"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="183"/>
+      <c r="T15" s="183"/>
+      <c r="U15" s="183"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="183"/>
+      <c r="X15" s="183"/>
+      <c r="Y15" s="183"/>
+      <c r="Z15" s="183"/>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="183"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="183"/>
+      <c r="AE15" s="184"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="180"/>
+      <c r="AH15" s="180"/>
+      <c r="AI15" s="181"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="134"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="134"/>
-      <c r="AB16" s="134"/>
-      <c r="AC16" s="134"/>
-      <c r="AD16" s="134"/>
-      <c r="AE16" s="135"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="132"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="183"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="183"/>
+      <c r="Y16" s="183"/>
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="183"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="183"/>
+      <c r="AE16" s="184"/>
+      <c r="AF16" s="179"/>
+      <c r="AG16" s="180"/>
+      <c r="AH16" s="180"/>
+      <c r="AI16" s="181"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
-      <c r="Z17" s="134"/>
-      <c r="AA17" s="134"/>
-      <c r="AB17" s="134"/>
-      <c r="AC17" s="134"/>
-      <c r="AD17" s="134"/>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="132"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
+      <c r="Y17" s="183"/>
+      <c r="Z17" s="183"/>
+      <c r="AA17" s="183"/>
+      <c r="AB17" s="183"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="183"/>
+      <c r="AE17" s="184"/>
+      <c r="AF17" s="179"/>
+      <c r="AG17" s="180"/>
+      <c r="AH17" s="180"/>
+      <c r="AI17" s="181"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="134"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="134"/>
-      <c r="AB18" s="134"/>
-      <c r="AC18" s="134"/>
-      <c r="AD18" s="134"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="132"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="183"/>
+      <c r="AB18" s="183"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="179"/>
+      <c r="AG18" s="180"/>
+      <c r="AH18" s="180"/>
+      <c r="AI18" s="181"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="134"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="134"/>
-      <c r="AD19" s="134"/>
-      <c r="AE19" s="135"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="132"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="183"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="183"/>
+      <c r="U19" s="183"/>
+      <c r="V19" s="183"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="183"/>
+      <c r="Z19" s="183"/>
+      <c r="AA19" s="183"/>
+      <c r="AB19" s="183"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="184"/>
+      <c r="AF19" s="179"/>
+      <c r="AG19" s="180"/>
+      <c r="AH19" s="180"/>
+      <c r="AI19" s="181"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="134"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="134"/>
-      <c r="AE20" s="135"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="132"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="183"/>
+      <c r="Z20" s="183"/>
+      <c r="AA20" s="183"/>
+      <c r="AB20" s="183"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="183"/>
+      <c r="AE20" s="184"/>
+      <c r="AF20" s="179"/>
+      <c r="AG20" s="180"/>
+      <c r="AH20" s="180"/>
+      <c r="AI20" s="181"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="134"/>
-      <c r="X21" s="134"/>
-      <c r="Y21" s="134"/>
-      <c r="Z21" s="134"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="134"/>
-      <c r="AD21" s="134"/>
-      <c r="AE21" s="135"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="132"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="183"/>
+      <c r="AE21" s="184"/>
+      <c r="AF21" s="179"/>
+      <c r="AG21" s="180"/>
+      <c r="AH21" s="180"/>
+      <c r="AI21" s="181"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="134"/>
-      <c r="X22" s="134"/>
-      <c r="Y22" s="134"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="135"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="132"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="184"/>
+      <c r="AF22" s="179"/>
+      <c r="AG22" s="180"/>
+      <c r="AH22" s="180"/>
+      <c r="AI22" s="181"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="134"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="132"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="184"/>
+      <c r="AF23" s="179"/>
+      <c r="AG23" s="180"/>
+      <c r="AH23" s="180"/>
+      <c r="AI23" s="181"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="134"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="135"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="132"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="184"/>
+      <c r="AF24" s="179"/>
+      <c r="AG24" s="180"/>
+      <c r="AH24" s="180"/>
+      <c r="AI24" s="181"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="134"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="135"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="132"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="184"/>
+      <c r="AF25" s="179"/>
+      <c r="AG25" s="180"/>
+      <c r="AH25" s="180"/>
+      <c r="AI25" s="181"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="134"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="134"/>
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="132"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="183"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="183"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="179"/>
+      <c r="AG26" s="180"/>
+      <c r="AH26" s="180"/>
+      <c r="AI26" s="181"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="135"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="132"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="184"/>
+      <c r="AF27" s="179"/>
+      <c r="AG27" s="180"/>
+      <c r="AH27" s="180"/>
+      <c r="AI27" s="181"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="132"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="179"/>
+      <c r="AG28" s="180"/>
+      <c r="AH28" s="180"/>
+      <c r="AI28" s="181"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="135"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="132"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="183"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="183"/>
+      <c r="AD29" s="183"/>
+      <c r="AE29" s="184"/>
+      <c r="AF29" s="179"/>
+      <c r="AG29" s="180"/>
+      <c r="AH29" s="180"/>
+      <c r="AI29" s="181"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="133"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="135"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="132"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="179"/>
+      <c r="AG30" s="180"/>
+      <c r="AH30" s="180"/>
+      <c r="AI30" s="181"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="132"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="183"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="183"/>
+      <c r="AE31" s="184"/>
+      <c r="AF31" s="179"/>
+      <c r="AG31" s="180"/>
+      <c r="AH31" s="180"/>
+      <c r="AI31" s="181"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="132"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
+      <c r="Z32" s="183"/>
+      <c r="AA32" s="183"/>
+      <c r="AB32" s="183"/>
+      <c r="AC32" s="183"/>
+      <c r="AD32" s="183"/>
+      <c r="AE32" s="184"/>
+      <c r="AF32" s="179"/>
+      <c r="AG32" s="180"/>
+      <c r="AH32" s="180"/>
+      <c r="AI32" s="181"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="135"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="132"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="183"/>
+      <c r="AA33" s="183"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="183"/>
+      <c r="AD33" s="183"/>
+      <c r="AE33" s="184"/>
+      <c r="AF33" s="179"/>
+      <c r="AG33" s="180"/>
+      <c r="AH33" s="180"/>
+      <c r="AI33" s="181"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12277,6 +12095,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12315,7 +12294,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -12325,17 +12304,17 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O6" s="24" t="s">
         <v>18</v>
@@ -12346,7 +12325,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>19</v>
@@ -12924,8 +12903,8 @@
       <c r="C24" s="68"/>
       <c r="D24" s="71"/>
       <c r="E24" s="69"/>
-      <c r="F24" s="66" t="s">
-        <v>445</v>
+      <c r="F24" s="42" t="s">
+        <v>639</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>443</v>
@@ -13249,7 +13228,7 @@
       <c r="C33" s="68"/>
       <c r="D33" s="70"/>
       <c r="E33" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F33" s="66" t="s">
         <v>187</v>
@@ -13324,10 +13303,10 @@
         <v>189</v>
       </c>
       <c r="F35" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
@@ -13371,7 +13350,7 @@
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K36" s="61"/>
       <c r="L36" s="51"/>
@@ -13400,13 +13379,13 @@
       <c r="D37" s="70"/>
       <c r="E37" s="65"/>
       <c r="F37" s="66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G37" s="61"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K37" s="61"/>
       <c r="L37" s="51"/>
@@ -13441,7 +13420,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K38" s="61"/>
       <c r="L38" s="51"/>
@@ -13476,7 +13455,7 @@
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
       <c r="J39" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K39" s="61"/>
       <c r="L39" s="51"/>
@@ -13509,13 +13488,13 @@
         <v>43</v>
       </c>
       <c r="F40" s="66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G40" s="61"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K40" s="61"/>
       <c r="L40" s="51"/>
@@ -13544,13 +13523,13 @@
       <c r="D41" s="71"/>
       <c r="E41" s="69"/>
       <c r="F41" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G41" s="61"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K41" s="61"/>
       <c r="L41" s="51"/>
@@ -13591,31 +13570,31 @@
       </c>
       <c r="G42" s="48"/>
       <c r="H42" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="I42" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="I42" s="47" t="s">
+      <c r="J42" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="K42" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="K42" s="50" t="s">
-        <v>488</v>
-      </c>
       <c r="L42" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M42" s="49">
         <v>1</v>
       </c>
       <c r="N42" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O42" s="122">
         <v>44854</v>
       </c>
       <c r="P42" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q42" s="83"/>
       <c r="R42" s="48"/>
@@ -13640,31 +13619,31 @@
       <c r="F43" s="85"/>
       <c r="G43" s="48"/>
       <c r="H43" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="I43" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="I43" s="47" t="s">
-        <v>486</v>
-      </c>
       <c r="J43" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K43" s="50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L43" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M43" s="49">
         <v>2</v>
       </c>
       <c r="N43" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O43" s="122">
         <v>44854</v>
       </c>
       <c r="P43" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q43" s="83"/>
       <c r="R43" s="48"/>
@@ -13691,31 +13670,31 @@
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="I44" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="I44" s="47" t="s">
-        <v>486</v>
-      </c>
       <c r="J44" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="K44" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="K44" s="50" t="s">
-        <v>491</v>
-      </c>
       <c r="L44" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M44" s="49">
         <v>3</v>
       </c>
       <c r="N44" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O44" s="122">
         <v>44854</v>
       </c>
       <c r="P44" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q44" s="83"/>
       <c r="R44" s="48"/>
@@ -13740,31 +13719,31 @@
       <c r="F45" s="85"/>
       <c r="G45" s="48"/>
       <c r="H45" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="I45" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="I45" s="47" t="s">
-        <v>486</v>
-      </c>
       <c r="J45" s="50" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K45" s="50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L45" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M45" s="49">
         <v>4</v>
       </c>
       <c r="N45" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O45" s="122">
         <v>44854</v>
       </c>
       <c r="P45" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q45" s="83"/>
       <c r="R45" s="48"/>
@@ -13793,7 +13772,7 @@
       <c r="H46" s="42"/>
       <c r="I46" s="45"/>
       <c r="J46" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K46" s="60"/>
       <c r="L46" s="51"/>
@@ -13830,7 +13809,7 @@
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
       <c r="J47" s="102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K47" s="61"/>
       <c r="L47" s="51"/>
@@ -13865,7 +13844,7 @@
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
       <c r="J48" s="102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K48" s="61"/>
       <c r="L48" s="51"/>
@@ -13900,7 +13879,7 @@
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
       <c r="J49" s="102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K49" s="61"/>
       <c r="L49" s="51"/>
@@ -13937,7 +13916,7 @@
       <c r="H50" s="45"/>
       <c r="I50" s="45"/>
       <c r="J50" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K50" s="60"/>
       <c r="L50" s="51"/>
@@ -13972,7 +13951,7 @@
       <c r="H51" s="45"/>
       <c r="I51" s="45"/>
       <c r="J51" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K51" s="60"/>
       <c r="L51" s="51"/>
@@ -14009,7 +13988,7 @@
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K52" s="61"/>
       <c r="L52" s="51"/>
@@ -14044,7 +14023,7 @@
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K53" s="61"/>
       <c r="L53" s="51"/>
@@ -14079,7 +14058,7 @@
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
       <c r="J54" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K54" s="61"/>
       <c r="L54" s="51"/>
@@ -14114,7 +14093,7 @@
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K55" s="61"/>
       <c r="L55" s="51"/>
@@ -14149,7 +14128,7 @@
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K56" s="61"/>
       <c r="L56" s="51"/>
@@ -14184,7 +14163,7 @@
       <c r="H57" s="51"/>
       <c r="I57" s="51"/>
       <c r="J57" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K57" s="61"/>
       <c r="L57" s="51"/>
@@ -14221,7 +14200,7 @@
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
       <c r="J58" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K58" s="60"/>
       <c r="L58" s="51"/>
@@ -14258,7 +14237,7 @@
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K59" s="61"/>
       <c r="L59" s="51"/>
@@ -14295,7 +14274,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K60" s="61"/>
       <c r="L60" s="51"/>
@@ -14334,7 +14313,7 @@
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K61" s="61"/>
       <c r="L61" s="51"/>
@@ -14369,7 +14348,7 @@
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
       <c r="J62" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K62" s="60"/>
       <c r="L62" s="51"/>
@@ -14404,7 +14383,7 @@
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
       <c r="J63" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K63" s="61"/>
       <c r="L63" s="51"/>
@@ -14439,7 +14418,7 @@
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K64" s="61"/>
       <c r="L64" s="51"/>
@@ -14474,7 +14453,7 @@
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K65" s="61"/>
       <c r="L65" s="51"/>
@@ -14511,7 +14490,7 @@
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
       <c r="J66" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K66" s="61"/>
       <c r="L66" s="51"/>
@@ -14546,7 +14525,7 @@
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K67" s="61"/>
       <c r="L67" s="51"/>
@@ -14581,7 +14560,7 @@
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K68" s="61"/>
       <c r="L68" s="51"/>
@@ -14616,7 +14595,7 @@
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
       <c r="J69" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K69" s="61"/>
       <c r="L69" s="51"/>
@@ -14651,7 +14630,7 @@
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K70" s="61"/>
       <c r="L70" s="51"/>
@@ -14686,7 +14665,7 @@
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
       <c r="J71" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K71" s="61"/>
       <c r="L71" s="51"/>
@@ -14721,7 +14700,7 @@
       <c r="H72" s="51"/>
       <c r="I72" s="51"/>
       <c r="J72" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K72" s="61"/>
       <c r="L72" s="51"/>
@@ -14756,7 +14735,7 @@
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K73" s="61"/>
       <c r="L73" s="51"/>
@@ -14793,7 +14772,7 @@
       <c r="H74" s="45"/>
       <c r="I74" s="45"/>
       <c r="J74" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K74" s="60"/>
       <c r="L74" s="63"/>
@@ -14830,7 +14809,7 @@
       <c r="H75" s="51"/>
       <c r="I75" s="51"/>
       <c r="J75" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K75" s="61"/>
       <c r="L75" s="51"/>
@@ -14865,7 +14844,7 @@
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
       <c r="J76" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K76" s="61"/>
       <c r="L76" s="51"/>
@@ -14900,7 +14879,7 @@
       <c r="H77" s="51"/>
       <c r="I77" s="51"/>
       <c r="J77" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K77" s="61"/>
       <c r="L77" s="51"/>
@@ -14935,7 +14914,7 @@
       <c r="H78" s="51"/>
       <c r="I78" s="51"/>
       <c r="J78" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K78" s="61"/>
       <c r="L78" s="51"/>
@@ -15008,31 +14987,31 @@
       </c>
       <c r="G80" s="48"/>
       <c r="H80" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="I80" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="I80" s="47" t="s">
+      <c r="J80" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="J80" s="50" t="s">
+      <c r="K80" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="K80" s="50" t="s">
-        <v>504</v>
-      </c>
       <c r="L80" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M80" s="49" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N80" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O80" s="122">
         <v>44854</v>
       </c>
       <c r="P80" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q80" s="83"/>
       <c r="R80" s="48"/>
@@ -15056,31 +15035,31 @@
       <c r="F81" s="85"/>
       <c r="G81" s="48"/>
       <c r="H81" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="I81" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="I81" s="47" t="s">
-        <v>502</v>
-      </c>
       <c r="J81" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="K81" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="K81" s="50" t="s">
-        <v>506</v>
-      </c>
       <c r="L81" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M81" s="49">
         <v>5</v>
       </c>
       <c r="N81" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O81" s="122">
         <v>44854</v>
       </c>
       <c r="P81" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q81" s="83"/>
       <c r="R81" s="48"/>
@@ -15107,31 +15086,31 @@
       </c>
       <c r="G82" s="48"/>
       <c r="H82" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I82" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="J82" s="86" t="s">
         <v>507</v>
       </c>
-      <c r="J82" s="86" t="s">
+      <c r="K82" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="K82" s="48" t="s">
-        <v>509</v>
-      </c>
       <c r="L82" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M82" s="49" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N82" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O82" s="122">
         <v>44854</v>
       </c>
       <c r="P82" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q82" s="83"/>
       <c r="R82" s="48"/>
@@ -15160,31 +15139,31 @@
       </c>
       <c r="G83" s="48"/>
       <c r="H83" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I83" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="J83" s="86" t="s">
+        <v>504</v>
+      </c>
+      <c r="K83" s="48" t="s">
         <v>628</v>
       </c>
-      <c r="J83" s="86" t="s">
-        <v>505</v>
-      </c>
-      <c r="K83" s="48" t="s">
-        <v>629</v>
-      </c>
       <c r="L83" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M83" s="49">
         <v>5</v>
       </c>
       <c r="N83" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O83" s="122">
         <v>44854</v>
       </c>
       <c r="P83" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q83" s="83"/>
       <c r="R83" s="48"/>
@@ -15215,7 +15194,7 @@
       <c r="H84" s="51"/>
       <c r="I84" s="51"/>
       <c r="J84" s="61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K84" s="61"/>
       <c r="L84" s="51"/>
@@ -15250,7 +15229,7 @@
       <c r="H85" s="51"/>
       <c r="I85" s="51"/>
       <c r="J85" s="61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K85" s="61"/>
       <c r="L85" s="51"/>
@@ -15285,31 +15264,31 @@
       </c>
       <c r="G86" s="48"/>
       <c r="H86" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I86" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="J86" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="J86" s="48" t="s">
-        <v>512</v>
-      </c>
       <c r="K86" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L86" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M86" s="49">
         <v>5</v>
       </c>
       <c r="N86" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O86" s="122">
         <v>44854</v>
       </c>
       <c r="P86" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q86" s="83"/>
       <c r="R86" s="48"/>
@@ -15340,7 +15319,7 @@
       <c r="H87" s="51"/>
       <c r="I87" s="51"/>
       <c r="J87" s="61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K87" s="61"/>
       <c r="L87" s="51"/>
@@ -15381,7 +15360,7 @@
       <c r="H88" s="51"/>
       <c r="I88" s="51"/>
       <c r="J88" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K88" s="61"/>
       <c r="L88" s="51"/>
@@ -15418,7 +15397,7 @@
       <c r="H89" s="51"/>
       <c r="I89" s="51"/>
       <c r="J89" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K89" s="61"/>
       <c r="L89" s="51"/>
@@ -15455,7 +15434,7 @@
       <c r="H90" s="51"/>
       <c r="I90" s="51"/>
       <c r="J90" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K90" s="61"/>
       <c r="L90" s="51"/>
@@ -15496,7 +15475,7 @@
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
       <c r="J91" s="60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K91" s="51"/>
       <c r="L91" s="51"/>
@@ -15531,7 +15510,7 @@
       <c r="H92" s="51"/>
       <c r="I92" s="51"/>
       <c r="J92" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K92" s="61"/>
       <c r="L92" s="51"/>
@@ -15568,7 +15547,7 @@
       <c r="H93" s="51"/>
       <c r="I93" s="51"/>
       <c r="J93" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K93" s="61"/>
       <c r="L93" s="51"/>
@@ -15605,7 +15584,7 @@
       <c r="H94" s="51"/>
       <c r="I94" s="51"/>
       <c r="J94" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K94" s="61"/>
       <c r="L94" s="51"/>
@@ -15640,7 +15619,7 @@
       <c r="H95" s="51"/>
       <c r="I95" s="51"/>
       <c r="J95" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K95" s="61"/>
       <c r="L95" s="51"/>
@@ -15677,7 +15656,7 @@
       <c r="H96" s="51"/>
       <c r="I96" s="51"/>
       <c r="J96" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K96" s="61"/>
       <c r="L96" s="51"/>
@@ -15718,7 +15697,7 @@
       <c r="H97" s="51"/>
       <c r="I97" s="51"/>
       <c r="J97" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K97" s="61"/>
       <c r="L97" s="51"/>
@@ -15753,7 +15732,7 @@
       <c r="H98" s="51"/>
       <c r="I98" s="51"/>
       <c r="J98" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K98" s="61"/>
       <c r="L98" s="51"/>
@@ -15788,7 +15767,7 @@
       <c r="H99" s="51"/>
       <c r="I99" s="51"/>
       <c r="J99" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K99" s="61"/>
       <c r="L99" s="51"/>
@@ -15823,7 +15802,7 @@
       <c r="H100" s="51"/>
       <c r="I100" s="51"/>
       <c r="J100" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K100" s="61"/>
       <c r="L100" s="51"/>
@@ -15858,7 +15837,7 @@
       <c r="H101" s="51"/>
       <c r="I101" s="51"/>
       <c r="J101" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K101" s="61"/>
       <c r="L101" s="51"/>
@@ -15895,7 +15874,7 @@
       <c r="H102" s="51"/>
       <c r="I102" s="51"/>
       <c r="J102" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K102" s="61"/>
       <c r="L102" s="51"/>
@@ -15930,7 +15909,7 @@
       <c r="H103" s="51"/>
       <c r="I103" s="51"/>
       <c r="J103" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K103" s="61"/>
       <c r="L103" s="51"/>
@@ -15965,7 +15944,7 @@
       <c r="H104" s="51"/>
       <c r="I104" s="51"/>
       <c r="J104" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K104" s="61"/>
       <c r="L104" s="51"/>
@@ -16000,7 +15979,7 @@
       <c r="H105" s="51"/>
       <c r="I105" s="51"/>
       <c r="J105" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K105" s="61"/>
       <c r="L105" s="51"/>
@@ -16035,7 +16014,7 @@
       <c r="H106" s="51"/>
       <c r="I106" s="51"/>
       <c r="J106" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K106" s="61"/>
       <c r="L106" s="51"/>
@@ -16072,7 +16051,7 @@
       <c r="H107" s="51"/>
       <c r="I107" s="51"/>
       <c r="J107" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K107" s="61"/>
       <c r="L107" s="51"/>
@@ -16115,7 +16094,7 @@
       <c r="H108" s="51"/>
       <c r="I108" s="51"/>
       <c r="J108" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K108" s="61"/>
       <c r="L108" s="51"/>
@@ -16156,7 +16135,7 @@
       <c r="H109" s="51"/>
       <c r="I109" s="51"/>
       <c r="J109" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K109" s="61"/>
       <c r="L109" s="51"/>
@@ -16191,7 +16170,7 @@
       <c r="H110" s="51"/>
       <c r="I110" s="51"/>
       <c r="J110" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K110" s="61"/>
       <c r="L110" s="51"/>
@@ -16232,7 +16211,7 @@
       <c r="H111" s="51"/>
       <c r="I111" s="51"/>
       <c r="J111" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K111" s="61"/>
       <c r="L111" s="51"/>
@@ -16273,7 +16252,7 @@
       <c r="H112" s="51"/>
       <c r="I112" s="51"/>
       <c r="J112" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K112" s="61"/>
       <c r="L112" s="51"/>
@@ -16308,7 +16287,7 @@
       <c r="H113" s="51"/>
       <c r="I113" s="51"/>
       <c r="J113" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K113" s="61"/>
       <c r="L113" s="51"/>
@@ -16351,7 +16330,7 @@
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
       <c r="J114" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K114" s="61"/>
       <c r="L114" s="51"/>
@@ -16376,7 +16355,7 @@
         <v>43-2-1</v>
       </c>
       <c r="B115" s="186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C115" s="70"/>
       <c r="D115" s="65"/>
@@ -16388,7 +16367,7 @@
       <c r="H115" s="51"/>
       <c r="I115" s="51"/>
       <c r="J115" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K115" s="61"/>
       <c r="L115" s="51"/>
@@ -16423,7 +16402,7 @@
       <c r="H116" s="51"/>
       <c r="I116" s="51"/>
       <c r="J116" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K116" s="61"/>
       <c r="L116" s="51"/>
@@ -16458,7 +16437,7 @@
       <c r="H117" s="51"/>
       <c r="I117" s="51"/>
       <c r="J117" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K117" s="61"/>
       <c r="L117" s="51"/>
@@ -16495,7 +16474,7 @@
       <c r="H118" s="51"/>
       <c r="I118" s="51"/>
       <c r="J118" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K118" s="61"/>
       <c r="L118" s="51"/>
@@ -16530,7 +16509,7 @@
       <c r="H119" s="51"/>
       <c r="I119" s="51"/>
       <c r="J119" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K119" s="61"/>
       <c r="L119" s="51"/>
@@ -16565,7 +16544,7 @@
       <c r="H120" s="51"/>
       <c r="I120" s="51"/>
       <c r="J120" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K120" s="61"/>
       <c r="L120" s="51"/>
@@ -16600,7 +16579,7 @@
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
       <c r="J121" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K121" s="61"/>
       <c r="L121" s="51"/>
@@ -16672,7 +16651,7 @@
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
       <c r="J123" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K123" s="61"/>
       <c r="L123" s="51"/>
@@ -16707,7 +16686,7 @@
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
       <c r="J124" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K124" s="61"/>
       <c r="L124" s="51"/>
@@ -16840,7 +16819,7 @@
       <c r="C128" s="70"/>
       <c r="D128" s="69"/>
       <c r="E128" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F128" s="66" t="s">
         <v>215</v>
@@ -16849,7 +16828,7 @@
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
       <c r="J128" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K128" s="61"/>
       <c r="L128" s="51"/>
@@ -16888,7 +16867,7 @@
       <c r="H129" s="51"/>
       <c r="I129" s="51"/>
       <c r="J129" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K129" s="61"/>
       <c r="L129" s="51"/>
@@ -16957,7 +16936,7 @@
       <c r="C131" s="65"/>
       <c r="D131" s="65"/>
       <c r="E131" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F131" s="66" t="s">
         <v>220</v>
@@ -16966,7 +16945,7 @@
       <c r="H131" s="51"/>
       <c r="I131" s="51"/>
       <c r="J131" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K131" s="61"/>
       <c r="L131" s="51"/>
@@ -17001,7 +16980,7 @@
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
       <c r="J132" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K132" s="61"/>
       <c r="L132" s="51"/>
@@ -17036,7 +17015,7 @@
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
       <c r="J133" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K133" s="61"/>
       <c r="L133" s="51"/>
@@ -17077,31 +17056,31 @@
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="I134" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="I134" s="49" t="s">
+      <c r="J134" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="J134" s="48" t="s">
-        <v>521</v>
-      </c>
       <c r="K134" s="48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L134" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M134" s="49">
         <v>5</v>
       </c>
       <c r="N134" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O134" s="122">
         <v>44854</v>
       </c>
       <c r="P134" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q134" s="83"/>
       <c r="R134" s="48"/>
@@ -17130,31 +17109,31 @@
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I135" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="J135" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="K135" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="J135" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="K135" s="48" t="s">
-        <v>523</v>
-      </c>
       <c r="L135" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M135" s="49">
         <v>5</v>
       </c>
       <c r="N135" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O135" s="122">
         <v>44854</v>
       </c>
       <c r="P135" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q135" s="83"/>
       <c r="R135" s="48"/>
@@ -17183,7 +17162,7 @@
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
       <c r="J136" s="61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K136" s="61"/>
       <c r="L136" s="51"/>
@@ -17218,7 +17197,7 @@
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
       <c r="J137" s="61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K137" s="61"/>
       <c r="L137" s="51"/>
@@ -17255,7 +17234,7 @@
       <c r="H138" s="51"/>
       <c r="I138" s="51"/>
       <c r="J138" s="61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K138" s="61"/>
       <c r="L138" s="51"/>
@@ -17290,7 +17269,7 @@
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
       <c r="J139" s="61" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K139" s="61"/>
       <c r="L139" s="51"/>
@@ -17329,7 +17308,7 @@
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
       <c r="J140" s="61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K140" s="61"/>
       <c r="L140" s="51"/>
@@ -17368,31 +17347,31 @@
       </c>
       <c r="G141" s="48"/>
       <c r="H141" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I141" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="J141" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="J141" s="48" t="s">
-        <v>530</v>
-      </c>
       <c r="K141" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L141" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M141" s="49">
         <v>5</v>
       </c>
       <c r="N141" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O141" s="122">
         <v>44854</v>
       </c>
       <c r="P141" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q141" s="83"/>
       <c r="R141" s="48"/>
@@ -17421,31 +17400,31 @@
       </c>
       <c r="G142" s="48"/>
       <c r="H142" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I142" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="J142" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="J142" s="48" t="s">
-        <v>532</v>
-      </c>
       <c r="K142" s="48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L142" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M142" s="49">
         <v>5</v>
       </c>
       <c r="N142" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O142" s="122">
         <v>44854</v>
       </c>
       <c r="P142" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q142" s="83"/>
       <c r="R142" s="48"/>
@@ -17474,31 +17453,31 @@
       </c>
       <c r="G143" s="48"/>
       <c r="H143" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I143" s="49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J143" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K143" s="48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L143" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M143" s="49">
         <v>5</v>
       </c>
       <c r="N143" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O143" s="122">
         <v>44854</v>
       </c>
       <c r="P143" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q143" s="83"/>
       <c r="R143" s="48"/>
@@ -17557,38 +17536,38 @@
       <c r="C145" s="84"/>
       <c r="D145" s="80"/>
       <c r="E145" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F145" s="29" t="s">
         <v>243</v>
       </c>
       <c r="G145" s="48"/>
       <c r="H145" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I145" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="J145" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="K145" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="J145" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="K145" s="48" t="s">
-        <v>538</v>
-      </c>
       <c r="L145" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M145" s="49">
         <v>5</v>
       </c>
       <c r="N145" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O145" s="122">
         <v>44854</v>
       </c>
       <c r="P145" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q145" s="83"/>
       <c r="R145" s="48"/>
@@ -17610,7 +17589,7 @@
       <c r="C146" s="84"/>
       <c r="D146" s="80"/>
       <c r="E146" s="93" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F146" s="66" t="s">
         <v>244</v>
@@ -17831,31 +17810,31 @@
       </c>
       <c r="G152" s="48"/>
       <c r="H152" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="I152" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="J152" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="I152" s="49" t="s">
-        <v>537</v>
-      </c>
-      <c r="J152" s="48" t="s">
+      <c r="K152" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="K152" s="48" t="s">
-        <v>541</v>
-      </c>
       <c r="L152" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M152" s="49">
         <v>5</v>
       </c>
       <c r="N152" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O152" s="122">
         <v>44854</v>
       </c>
       <c r="P152" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q152" s="83"/>
       <c r="R152" s="48"/>
@@ -17880,31 +17859,31 @@
       <c r="F153" s="80"/>
       <c r="G153" s="48"/>
       <c r="H153" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I153" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J153" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="K153" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="K153" s="48" t="s">
-        <v>543</v>
-      </c>
       <c r="L153" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M153" s="49">
         <v>5</v>
       </c>
       <c r="N153" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O153" s="122">
         <v>44854</v>
       </c>
       <c r="P153" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q153" s="83"/>
       <c r="R153" s="48"/>
@@ -17929,31 +17908,31 @@
       <c r="F154" s="80"/>
       <c r="G154" s="48"/>
       <c r="H154" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I154" s="49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J154" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="K154" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="K154" s="48" t="s">
-        <v>545</v>
-      </c>
       <c r="L154" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M154" s="49">
         <v>5</v>
       </c>
       <c r="N154" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O154" s="122">
         <v>44854</v>
       </c>
       <c r="P154" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q154" s="83"/>
       <c r="R154" s="48"/>
@@ -17978,31 +17957,31 @@
       <c r="F155" s="80"/>
       <c r="G155" s="48"/>
       <c r="H155" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I155" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J155" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="K155" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="K155" s="48" t="s">
-        <v>547</v>
-      </c>
       <c r="L155" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M155" s="49">
         <v>5</v>
       </c>
       <c r="N155" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O155" s="122">
         <v>44854</v>
       </c>
       <c r="P155" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q155" s="83"/>
       <c r="R155" s="48"/>
@@ -18027,31 +18006,31 @@
       <c r="F156" s="80"/>
       <c r="G156" s="48"/>
       <c r="H156" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I156" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J156" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="K156" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="K156" s="48" t="s">
-        <v>549</v>
-      </c>
       <c r="L156" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M156" s="49">
         <v>5</v>
       </c>
       <c r="N156" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O156" s="122">
         <v>44854</v>
       </c>
       <c r="P156" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q156" s="83"/>
       <c r="R156" s="48"/>
@@ -18076,31 +18055,31 @@
       <c r="F157" s="80"/>
       <c r="G157" s="48"/>
       <c r="H157" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I157" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J157" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="K157" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="K157" s="48" t="s">
-        <v>551</v>
-      </c>
       <c r="L157" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M157" s="49">
         <v>5</v>
       </c>
       <c r="N157" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O157" s="122">
         <v>44854</v>
       </c>
       <c r="P157" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q157" s="83"/>
       <c r="R157" s="48"/>
@@ -18125,31 +18104,31 @@
       <c r="F158" s="80"/>
       <c r="G158" s="48"/>
       <c r="H158" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I158" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J158" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="K158" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="K158" s="48" t="s">
-        <v>553</v>
-      </c>
       <c r="L158" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M158" s="49">
         <v>5</v>
       </c>
       <c r="N158" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O158" s="122">
         <v>44854</v>
       </c>
       <c r="P158" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q158" s="83"/>
       <c r="R158" s="48"/>
@@ -18174,31 +18153,31 @@
       <c r="F159" s="80"/>
       <c r="G159" s="48"/>
       <c r="H159" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I159" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J159" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="K159" s="48" t="s">
         <v>554</v>
       </c>
-      <c r="K159" s="48" t="s">
-        <v>555</v>
-      </c>
       <c r="L159" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M159" s="49">
         <v>5</v>
       </c>
       <c r="N159" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O159" s="122">
         <v>44854</v>
       </c>
       <c r="P159" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q159" s="83"/>
       <c r="R159" s="48"/>
@@ -18223,31 +18202,31 @@
       <c r="F160" s="80"/>
       <c r="G160" s="48"/>
       <c r="H160" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I160" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J160" s="48" t="s">
+        <v>555</v>
+      </c>
+      <c r="K160" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="K160" s="48" t="s">
-        <v>557</v>
-      </c>
       <c r="L160" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M160" s="49">
         <v>5</v>
       </c>
       <c r="N160" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O160" s="122">
         <v>44854</v>
       </c>
       <c r="P160" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q160" s="83"/>
       <c r="R160" s="48"/>
@@ -18272,31 +18251,31 @@
       <c r="F161" s="80"/>
       <c r="G161" s="48"/>
       <c r="H161" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I161" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J161" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="K161" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="K161" s="48" t="s">
-        <v>559</v>
-      </c>
       <c r="L161" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M161" s="49">
         <v>5</v>
       </c>
       <c r="N161" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O161" s="122">
         <v>44854</v>
       </c>
       <c r="P161" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q161" s="83"/>
       <c r="R161" s="48"/>
@@ -18321,31 +18300,31 @@
       <c r="F162" s="80"/>
       <c r="G162" s="48"/>
       <c r="H162" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I162" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J162" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="K162" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="K162" s="48" t="s">
-        <v>561</v>
-      </c>
       <c r="L162" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M162" s="49">
         <v>5</v>
       </c>
       <c r="N162" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O162" s="122">
         <v>44854</v>
       </c>
       <c r="P162" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q162" s="83"/>
       <c r="R162" s="48"/>
@@ -18370,31 +18349,31 @@
       <c r="F163" s="80"/>
       <c r="G163" s="48"/>
       <c r="H163" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I163" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J163" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="K163" s="48" t="s">
         <v>562</v>
       </c>
-      <c r="K163" s="48" t="s">
-        <v>563</v>
-      </c>
       <c r="L163" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M163" s="49">
         <v>5</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O163" s="122">
         <v>44854</v>
       </c>
       <c r="P163" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q163" s="83"/>
       <c r="R163" s="48"/>
@@ -18419,31 +18398,31 @@
       <c r="F164" s="85"/>
       <c r="G164" s="48"/>
       <c r="H164" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I164" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J164" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="K164" s="48" t="s">
         <v>564</v>
       </c>
-      <c r="K164" s="48" t="s">
-        <v>565</v>
-      </c>
       <c r="L164" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M164" s="49">
         <v>5</v>
       </c>
       <c r="N164" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O164" s="122">
         <v>44854</v>
       </c>
       <c r="P164" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q164" s="83"/>
       <c r="R164" s="48"/>
@@ -18473,7 +18452,7 @@
       <c r="I165" s="51"/>
       <c r="J165" s="61"/>
       <c r="K165" s="61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L165" s="51"/>
       <c r="M165" s="51"/>
@@ -18510,7 +18489,7 @@
       <c r="I166" s="51"/>
       <c r="J166" s="61"/>
       <c r="K166" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L166" s="51"/>
       <c r="M166" s="51"/>
@@ -18545,7 +18524,7 @@
       <c r="I167" s="51"/>
       <c r="J167" s="61"/>
       <c r="K167" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L167" s="51"/>
       <c r="M167" s="51"/>
@@ -18573,14 +18552,14 @@
       <c r="D168" s="80"/>
       <c r="E168" s="93"/>
       <c r="F168" s="66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G168" s="61"/>
       <c r="H168" s="51"/>
       <c r="I168" s="51"/>
       <c r="J168" s="61"/>
       <c r="K168" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L168" s="51"/>
       <c r="M168" s="51"/>
@@ -18608,14 +18587,14 @@
       <c r="D169" s="80"/>
       <c r="E169" s="93"/>
       <c r="F169" s="66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G169" s="61"/>
       <c r="H169" s="51"/>
       <c r="I169" s="51"/>
       <c r="J169" s="61"/>
       <c r="K169" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L169" s="51"/>
       <c r="M169" s="51"/>
@@ -18650,7 +18629,7 @@
       <c r="I170" s="51"/>
       <c r="J170" s="61"/>
       <c r="K170" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L170" s="51"/>
       <c r="M170" s="51"/>
@@ -18685,7 +18664,7 @@
       <c r="I171" s="51"/>
       <c r="J171" s="61"/>
       <c r="K171" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L171" s="51"/>
       <c r="M171" s="51"/>
@@ -18720,7 +18699,7 @@
       <c r="I172" s="51"/>
       <c r="J172" s="61"/>
       <c r="K172" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L172" s="51"/>
       <c r="M172" s="51"/>
@@ -18755,7 +18734,7 @@
       <c r="I173" s="51"/>
       <c r="J173" s="61"/>
       <c r="K173" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L173" s="51"/>
       <c r="M173" s="51"/>
@@ -18790,7 +18769,7 @@
       <c r="I174" s="51"/>
       <c r="J174" s="61"/>
       <c r="K174" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L174" s="51"/>
       <c r="M174" s="51"/>
@@ -18825,7 +18804,7 @@
       <c r="I175" s="51"/>
       <c r="J175" s="61"/>
       <c r="K175" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L175" s="51"/>
       <c r="M175" s="51"/>
@@ -18860,7 +18839,7 @@
       <c r="I176" s="51"/>
       <c r="J176" s="61"/>
       <c r="K176" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L176" s="51"/>
       <c r="M176" s="51"/>
@@ -18894,31 +18873,31 @@
       </c>
       <c r="G177" s="48"/>
       <c r="H177" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I177" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I177" s="49" t="s">
+      <c r="J177" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="J177" s="48" t="s">
+      <c r="K177" s="48" t="s">
         <v>570</v>
       </c>
-      <c r="K177" s="48" t="s">
-        <v>571</v>
-      </c>
       <c r="L177" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M177" s="49">
         <v>5</v>
       </c>
       <c r="N177" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O177" s="122">
         <v>44854</v>
       </c>
       <c r="P177" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q177" s="83"/>
       <c r="R177" s="48"/>
@@ -18943,31 +18922,31 @@
       <c r="F178" s="80"/>
       <c r="G178" s="48"/>
       <c r="H178" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I178" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I178" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J178" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="K178" s="48" t="s">
         <v>572</v>
       </c>
-      <c r="K178" s="48" t="s">
-        <v>573</v>
-      </c>
       <c r="L178" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M178" s="49">
         <v>5</v>
       </c>
       <c r="N178" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O178" s="122">
         <v>44854</v>
       </c>
       <c r="P178" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q178" s="83"/>
       <c r="R178" s="48"/>
@@ -18992,31 +18971,31 @@
       <c r="F179" s="80"/>
       <c r="G179" s="48"/>
       <c r="H179" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I179" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I179" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J179" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="K179" s="48" t="s">
         <v>574</v>
       </c>
-      <c r="K179" s="48" t="s">
-        <v>575</v>
-      </c>
       <c r="L179" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M179" s="49">
         <v>5</v>
       </c>
       <c r="N179" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O179" s="122">
         <v>44854</v>
       </c>
       <c r="P179" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q179" s="83"/>
       <c r="R179" s="48"/>
@@ -19041,31 +19020,31 @@
       <c r="F180" s="80"/>
       <c r="G180" s="48"/>
       <c r="H180" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I180" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I180" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J180" s="48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K180" s="48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L180" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M180" s="49">
         <v>5</v>
       </c>
       <c r="N180" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O180" s="122">
         <v>44854</v>
       </c>
       <c r="P180" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q180" s="83"/>
       <c r="R180" s="48"/>
@@ -19090,31 +19069,31 @@
       <c r="F181" s="80"/>
       <c r="G181" s="48"/>
       <c r="H181" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I181" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I181" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J181" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="K181" s="48" t="s">
         <v>577</v>
       </c>
-      <c r="K181" s="48" t="s">
-        <v>578</v>
-      </c>
       <c r="L181" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M181" s="49">
         <v>8</v>
       </c>
       <c r="N181" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O181" s="122">
         <v>44854</v>
       </c>
       <c r="P181" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q181" s="83"/>
       <c r="R181" s="48"/>
@@ -19139,31 +19118,31 @@
       <c r="F182" s="80"/>
       <c r="G182" s="48"/>
       <c r="H182" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I182" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I182" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J182" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="K182" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="K182" s="48" t="s">
-        <v>580</v>
-      </c>
       <c r="L182" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M182" s="49">
         <v>8</v>
       </c>
       <c r="N182" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O182" s="122">
         <v>44854</v>
       </c>
       <c r="P182" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q182" s="83"/>
       <c r="R182" s="48"/>
@@ -19188,31 +19167,31 @@
       <c r="F183" s="80"/>
       <c r="G183" s="48"/>
       <c r="H183" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I183" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I183" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J183" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K183" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L183" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M183" s="49">
         <v>5</v>
       </c>
       <c r="N183" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O183" s="122">
         <v>44854</v>
       </c>
       <c r="P183" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q183" s="83"/>
       <c r="R183" s="48"/>
@@ -19237,31 +19216,31 @@
       <c r="F184" s="80"/>
       <c r="G184" s="48"/>
       <c r="H184" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I184" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I184" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J184" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="K184" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="K184" s="48" t="s">
-        <v>583</v>
-      </c>
       <c r="L184" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M184" s="49">
         <v>5</v>
       </c>
       <c r="N184" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O184" s="122">
         <v>44854</v>
       </c>
       <c r="P184" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q184" s="83"/>
       <c r="R184" s="48"/>
@@ -19286,31 +19265,31 @@
       <c r="F185" s="80"/>
       <c r="G185" s="48"/>
       <c r="H185" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I185" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I185" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J185" s="48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K185" s="48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L185" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M185" s="49">
         <v>5</v>
       </c>
       <c r="N185" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O185" s="122">
         <v>44854</v>
       </c>
       <c r="P185" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q185" s="83"/>
       <c r="R185" s="48"/>
@@ -19335,31 +19314,31 @@
       <c r="F186" s="80"/>
       <c r="G186" s="48"/>
       <c r="H186" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I186" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I186" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J186" s="48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K186" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L186" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M186" s="49">
         <v>5</v>
       </c>
       <c r="N186" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O186" s="122">
         <v>44854</v>
       </c>
       <c r="P186" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q186" s="83"/>
       <c r="R186" s="48"/>
@@ -19384,31 +19363,31 @@
       <c r="F187" s="80"/>
       <c r="G187" s="48"/>
       <c r="H187" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I187" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I187" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J187" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="K187" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="K187" s="48" t="s">
-        <v>587</v>
-      </c>
       <c r="L187" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M187" s="49">
         <v>5</v>
       </c>
       <c r="N187" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O187" s="122">
         <v>44854</v>
       </c>
       <c r="P187" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q187" s="83"/>
       <c r="R187" s="48"/>
@@ -19433,31 +19412,31 @@
       <c r="F188" s="80"/>
       <c r="G188" s="48"/>
       <c r="H188" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I188" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I188" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J188" s="48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K188" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L188" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M188" s="49">
         <v>5</v>
       </c>
       <c r="N188" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O188" s="122">
         <v>44854</v>
       </c>
       <c r="P188" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q188" s="83"/>
       <c r="R188" s="48"/>
@@ -19482,31 +19461,31 @@
       <c r="F189" s="85"/>
       <c r="G189" s="48"/>
       <c r="H189" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I189" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I189" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J189" s="48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K189" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L189" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M189" s="49">
         <v>5</v>
       </c>
       <c r="N189" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O189" s="122">
         <v>44854</v>
       </c>
       <c r="P189" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q189" s="83"/>
       <c r="R189" s="48"/>
@@ -19533,31 +19512,31 @@
       </c>
       <c r="G190" s="48"/>
       <c r="H190" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I190" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I190" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J190" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K190" s="48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L190" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M190" s="49">
         <v>5</v>
       </c>
       <c r="N190" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O190" s="122">
         <v>44854</v>
       </c>
       <c r="P190" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q190" s="83"/>
       <c r="R190" s="48"/>
@@ -19582,31 +19561,31 @@
       <c r="F191" s="80"/>
       <c r="G191" s="48"/>
       <c r="H191" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I191" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I191" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J191" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K191" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L191" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M191" s="49">
         <v>5</v>
       </c>
       <c r="N191" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O191" s="122">
         <v>44854</v>
       </c>
       <c r="P191" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q191" s="83"/>
       <c r="R191" s="48"/>
@@ -19631,31 +19610,31 @@
       <c r="F192" s="80"/>
       <c r="G192" s="48"/>
       <c r="H192" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I192" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I192" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J192" s="48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K192" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L192" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M192" s="49">
         <v>5</v>
       </c>
       <c r="N192" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O192" s="122">
         <v>44854</v>
       </c>
       <c r="P192" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q192" s="83"/>
       <c r="R192" s="48"/>
@@ -19680,31 +19659,31 @@
       <c r="F193" s="80"/>
       <c r="G193" s="48"/>
       <c r="H193" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I193" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I193" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J193" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K193" s="48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L193" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M193" s="49">
         <v>5</v>
       </c>
       <c r="N193" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O193" s="122">
         <v>44854</v>
       </c>
       <c r="P193" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q193" s="83"/>
       <c r="R193" s="48"/>
@@ -19729,31 +19708,31 @@
       <c r="F194" s="80"/>
       <c r="G194" s="48"/>
       <c r="H194" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I194" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I194" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J194" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="K194" s="48" t="s">
         <v>577</v>
       </c>
-      <c r="K194" s="48" t="s">
-        <v>578</v>
-      </c>
       <c r="L194" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M194" s="49">
         <v>8</v>
       </c>
       <c r="N194" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O194" s="122">
         <v>44854</v>
       </c>
       <c r="P194" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q194" s="83"/>
       <c r="R194" s="48"/>
@@ -19778,31 +19757,31 @@
       <c r="F195" s="80"/>
       <c r="G195" s="48"/>
       <c r="H195" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I195" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I195" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J195" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="K195" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="K195" s="48" t="s">
-        <v>580</v>
-      </c>
       <c r="L195" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M195" s="49">
         <v>8</v>
       </c>
       <c r="N195" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O195" s="122">
         <v>44854</v>
       </c>
       <c r="P195" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q195" s="83"/>
       <c r="R195" s="48"/>
@@ -19827,31 +19806,31 @@
       <c r="F196" s="80"/>
       <c r="G196" s="48"/>
       <c r="H196" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I196" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I196" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J196" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K196" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L196" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M196" s="49">
         <v>5</v>
       </c>
       <c r="N196" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O196" s="122">
         <v>44854</v>
       </c>
       <c r="P196" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q196" s="83"/>
       <c r="R196" s="48"/>
@@ -19876,31 +19855,31 @@
       <c r="F197" s="80"/>
       <c r="G197" s="48"/>
       <c r="H197" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I197" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I197" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J197" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K197" s="48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L197" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M197" s="49">
         <v>5</v>
       </c>
       <c r="N197" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O197" s="122">
         <v>44854</v>
       </c>
       <c r="P197" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q197" s="83"/>
       <c r="R197" s="48"/>
@@ -19925,31 +19904,31 @@
       <c r="F198" s="80"/>
       <c r="G198" s="48"/>
       <c r="H198" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I198" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I198" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J198" s="48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K198" s="48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L198" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M198" s="49">
         <v>5</v>
       </c>
       <c r="N198" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O198" s="122">
         <v>44854</v>
       </c>
       <c r="P198" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q198" s="83"/>
       <c r="R198" s="48"/>
@@ -19974,31 +19953,31 @@
       <c r="F199" s="80"/>
       <c r="G199" s="48"/>
       <c r="H199" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I199" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I199" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J199" s="48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K199" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L199" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M199" s="49">
         <v>5</v>
       </c>
       <c r="N199" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O199" s="122">
         <v>44854</v>
       </c>
       <c r="P199" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q199" s="83"/>
       <c r="R199" s="48"/>
@@ -20023,31 +20002,31 @@
       <c r="F200" s="80"/>
       <c r="G200" s="48"/>
       <c r="H200" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I200" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I200" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J200" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="K200" s="48" t="s">
         <v>598</v>
       </c>
-      <c r="K200" s="48" t="s">
-        <v>599</v>
-      </c>
       <c r="L200" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M200" s="49">
         <v>5</v>
       </c>
       <c r="N200" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O200" s="122">
         <v>44854</v>
       </c>
       <c r="P200" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q200" s="83"/>
       <c r="R200" s="48"/>
@@ -20072,31 +20051,31 @@
       <c r="F201" s="80"/>
       <c r="G201" s="48"/>
       <c r="H201" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I201" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I201" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J201" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="K201" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="K201" s="48" t="s">
-        <v>601</v>
-      </c>
       <c r="L201" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M201" s="49">
         <v>5</v>
       </c>
       <c r="N201" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O201" s="122">
         <v>44854</v>
       </c>
       <c r="P201" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q201" s="83"/>
       <c r="R201" s="48"/>
@@ -20121,31 +20100,31 @@
       <c r="F202" s="85"/>
       <c r="G202" s="48"/>
       <c r="H202" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I202" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="I202" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J202" s="48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K202" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L202" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M202" s="49">
         <v>5</v>
       </c>
       <c r="N202" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O202" s="122">
         <v>44854</v>
       </c>
       <c r="P202" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q202" s="83"/>
       <c r="R202" s="48"/>
@@ -20172,31 +20151,31 @@
       </c>
       <c r="G203" s="48"/>
       <c r="H203" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I203" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J203" s="48" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K203" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L203" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M203" s="49">
         <v>5</v>
       </c>
       <c r="N203" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O203" s="122">
         <v>44854</v>
       </c>
       <c r="P203" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q203" s="83"/>
       <c r="R203" s="48"/>
@@ -20221,31 +20200,31 @@
       <c r="F204" s="85"/>
       <c r="G204" s="48"/>
       <c r="H204" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I204" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J204" s="48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K204" s="48" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L204" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M204" s="49">
         <v>5</v>
       </c>
       <c r="N204" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O204" s="122">
         <v>44854</v>
       </c>
       <c r="P204" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q204" s="83"/>
       <c r="R204" s="48"/>
@@ -20274,7 +20253,7 @@
       <c r="H205" s="51"/>
       <c r="I205" s="51"/>
       <c r="J205" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K205" s="61"/>
       <c r="L205" s="51"/>
@@ -20309,7 +20288,7 @@
       <c r="H206" s="51"/>
       <c r="I206" s="51"/>
       <c r="J206" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K206" s="61"/>
       <c r="L206" s="51"/>
@@ -20414,31 +20393,31 @@
       </c>
       <c r="G209" s="48"/>
       <c r="H209" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I209" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J209" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="K209" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="K209" s="48" t="s">
-        <v>506</v>
-      </c>
       <c r="L209" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M209" s="49">
         <v>5</v>
       </c>
       <c r="N209" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O209" s="122">
         <v>44854</v>
       </c>
       <c r="P209" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q209" s="83"/>
       <c r="R209" s="48"/>
@@ -20467,7 +20446,7 @@
       <c r="H210" s="51"/>
       <c r="I210" s="51"/>
       <c r="J210" s="61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K210" s="61"/>
       <c r="L210" s="51"/>
@@ -20500,31 +20479,31 @@
       </c>
       <c r="G211" s="48"/>
       <c r="H211" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I211" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J211" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="K211" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="K211" s="48" t="s">
-        <v>506</v>
-      </c>
       <c r="L211" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M211" s="49">
         <v>5</v>
       </c>
       <c r="N211" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O211" s="122">
         <v>44854</v>
       </c>
       <c r="P211" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q211" s="83"/>
       <c r="R211" s="48"/>
@@ -20553,7 +20532,7 @@
       <c r="H212" s="51"/>
       <c r="I212" s="51"/>
       <c r="J212" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K212" s="61"/>
       <c r="L212" s="51"/>
@@ -20588,7 +20567,7 @@
       <c r="H213" s="51"/>
       <c r="I213" s="51"/>
       <c r="J213" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K213" s="61"/>
       <c r="L213" s="51"/>
@@ -20621,31 +20600,31 @@
       </c>
       <c r="G214" s="48"/>
       <c r="H214" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I214" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J214" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="K214" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="K214" s="48" t="s">
-        <v>509</v>
-      </c>
       <c r="L214" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M214" s="49">
         <v>3</v>
       </c>
       <c r="N214" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O214" s="122">
         <v>44854</v>
       </c>
       <c r="P214" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q214" s="83"/>
       <c r="R214" s="48"/>
@@ -20779,31 +20758,31 @@
       </c>
       <c r="G218" s="48"/>
       <c r="H218" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I218" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="J218" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="J218" s="121" t="s">
-        <v>512</v>
-      </c>
       <c r="K218" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L218" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M218" s="49">
         <v>5</v>
       </c>
       <c r="N218" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O218" s="122">
         <v>44854</v>
       </c>
       <c r="P218" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q218" s="83"/>
       <c r="R218" s="48"/>
@@ -20943,7 +20922,7 @@
       <c r="B222" s="69"/>
       <c r="C222" s="71"/>
       <c r="D222" s="71" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E222" s="71" t="s">
         <v>43</v>
@@ -20995,7 +20974,7 @@
         <v>292</v>
       </c>
       <c r="G223" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H223" s="44"/>
       <c r="I223" s="44"/>
@@ -21032,7 +21011,7 @@
         <v>293</v>
       </c>
       <c r="G224" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H224" s="44"/>
       <c r="I224" s="44"/>
@@ -21067,7 +21046,7 @@
         <v>294</v>
       </c>
       <c r="G225" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H225" s="44"/>
       <c r="I225" s="44"/>
@@ -21104,7 +21083,7 @@
         <v>296</v>
       </c>
       <c r="G226" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H226" s="44"/>
       <c r="I226" s="44"/>
@@ -21139,7 +21118,7 @@
         <v>297</v>
       </c>
       <c r="G227" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H227" s="44"/>
       <c r="I227" s="44"/>
@@ -21178,7 +21157,7 @@
         <v>298</v>
       </c>
       <c r="G228" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H228" s="44"/>
       <c r="I228" s="44"/>
@@ -21210,7 +21189,7 @@
         <v>299</v>
       </c>
       <c r="D229" s="76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E229" s="77" t="s">
         <v>300</v>
@@ -21219,7 +21198,7 @@
         <v>301</v>
       </c>
       <c r="G229" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H229" s="44"/>
       <c r="I229" s="44"/>
@@ -21254,7 +21233,7 @@
         <v>302</v>
       </c>
       <c r="G230" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H230" s="44"/>
       <c r="I230" s="44"/>
@@ -21289,7 +21268,7 @@
         <v>303</v>
       </c>
       <c r="G231" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H231" s="44"/>
       <c r="I231" s="44"/>
@@ -21324,7 +21303,7 @@
         <v>304</v>
       </c>
       <c r="G232" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H232" s="44"/>
       <c r="I232" s="44"/>
@@ -21359,7 +21338,7 @@
         <v>305</v>
       </c>
       <c r="G233" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H233" s="44"/>
       <c r="I233" s="44"/>
@@ -21394,7 +21373,7 @@
         <v>306</v>
       </c>
       <c r="G234" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H234" s="44"/>
       <c r="I234" s="44"/>
@@ -21429,7 +21408,7 @@
         <v>307</v>
       </c>
       <c r="G235" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H235" s="44"/>
       <c r="I235" s="44"/>
@@ -21463,10 +21442,10 @@
         <v>308</v>
       </c>
       <c r="F236" s="78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G236" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H236" s="44"/>
       <c r="I236" s="44"/>
@@ -21505,7 +21484,7 @@
         <v>310</v>
       </c>
       <c r="G237" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H237" s="44"/>
       <c r="I237" s="44"/>
@@ -21540,7 +21519,7 @@
         <v>311</v>
       </c>
       <c r="G238" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H238" s="44"/>
       <c r="I238" s="44"/>
@@ -21575,7 +21554,7 @@
         <v>312</v>
       </c>
       <c r="G239" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H239" s="44"/>
       <c r="I239" s="44"/>
@@ -21610,7 +21589,7 @@
         <v>313</v>
       </c>
       <c r="G240" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H240" s="44"/>
       <c r="I240" s="44"/>
@@ -21645,7 +21624,7 @@
         <v>314</v>
       </c>
       <c r="G241" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H241" s="44"/>
       <c r="I241" s="44"/>
@@ -21680,7 +21659,7 @@
         <v>315</v>
       </c>
       <c r="G242" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H242" s="44"/>
       <c r="I242" s="44"/>
@@ -21712,10 +21691,10 @@
       <c r="D243" s="76"/>
       <c r="E243" s="77"/>
       <c r="F243" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G243" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H243" s="44"/>
       <c r="I243" s="44"/>
@@ -21750,7 +21729,7 @@
         <v>316</v>
       </c>
       <c r="G244" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H244" s="44"/>
       <c r="I244" s="44"/>
@@ -21785,7 +21764,7 @@
         <v>317</v>
       </c>
       <c r="G245" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H245" s="44"/>
       <c r="I245" s="44"/>
@@ -21820,7 +21799,7 @@
         <v>318</v>
       </c>
       <c r="G246" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H246" s="44"/>
       <c r="I246" s="44"/>
@@ -21855,7 +21834,7 @@
         <v>319</v>
       </c>
       <c r="G247" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H247" s="44"/>
       <c r="I247" s="44"/>
@@ -21890,7 +21869,7 @@
         <v>320</v>
       </c>
       <c r="G248" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H248" s="44"/>
       <c r="I248" s="44"/>
@@ -21925,7 +21904,7 @@
         <v>321</v>
       </c>
       <c r="G249" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H249" s="44"/>
       <c r="I249" s="44"/>
@@ -21955,7 +21934,7 @@
       <c r="B250" s="76"/>
       <c r="C250" s="94"/>
       <c r="D250" s="73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E250" s="72" t="s">
         <v>86</v>
@@ -21964,7 +21943,7 @@
         <v>322</v>
       </c>
       <c r="G250" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H250" s="44"/>
       <c r="I250" s="44"/>
@@ -21999,7 +21978,7 @@
         <v>323</v>
       </c>
       <c r="G251" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H251" s="44"/>
       <c r="I251" s="44"/>
@@ -22034,7 +22013,7 @@
         <v>324</v>
       </c>
       <c r="G252" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H252" s="44"/>
       <c r="I252" s="44"/>
@@ -22069,7 +22048,7 @@
         <v>312</v>
       </c>
       <c r="G253" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H253" s="44"/>
       <c r="I253" s="44"/>
@@ -22104,7 +22083,7 @@
         <v>313</v>
       </c>
       <c r="G254" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H254" s="44"/>
       <c r="I254" s="44"/>
@@ -22139,7 +22118,7 @@
         <v>325</v>
       </c>
       <c r="G255" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H255" s="44"/>
       <c r="I255" s="44"/>
@@ -22174,7 +22153,7 @@
         <v>326</v>
       </c>
       <c r="G256" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H256" s="44"/>
       <c r="I256" s="44"/>
@@ -22206,10 +22185,10 @@
       <c r="D257" s="76"/>
       <c r="E257" s="77"/>
       <c r="F257" s="78" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G257" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H257" s="44"/>
       <c r="I257" s="44"/>
@@ -22241,10 +22220,10 @@
       <c r="D258" s="76"/>
       <c r="E258" s="77"/>
       <c r="F258" s="78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G258" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H258" s="44"/>
       <c r="I258" s="44"/>
@@ -22279,7 +22258,7 @@
         <v>327</v>
       </c>
       <c r="G259" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H259" s="44"/>
       <c r="I259" s="44"/>
@@ -22314,7 +22293,7 @@
         <v>328</v>
       </c>
       <c r="G260" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H260" s="44"/>
       <c r="I260" s="44"/>
@@ -22349,7 +22328,7 @@
         <v>329</v>
       </c>
       <c r="G261" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H261" s="44"/>
       <c r="I261" s="44"/>
@@ -22384,7 +22363,7 @@
         <v>330</v>
       </c>
       <c r="G262" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H262" s="44"/>
       <c r="I262" s="44"/>
@@ -22419,7 +22398,7 @@
         <v>331</v>
       </c>
       <c r="G263" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H263" s="44"/>
       <c r="I263" s="44"/>
@@ -22454,7 +22433,7 @@
         <v>321</v>
       </c>
       <c r="G264" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H264" s="44"/>
       <c r="I264" s="44"/>
@@ -22491,7 +22470,7 @@
         <v>333</v>
       </c>
       <c r="G265" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H265" s="44"/>
       <c r="I265" s="44"/>
@@ -22526,7 +22505,7 @@
         <v>334</v>
       </c>
       <c r="G266" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H266" s="44"/>
       <c r="I266" s="44"/>
@@ -22561,7 +22540,7 @@
         <v>335</v>
       </c>
       <c r="G267" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H267" s="44"/>
       <c r="I267" s="44"/>
@@ -22595,10 +22574,10 @@
         <v>114</v>
       </c>
       <c r="F268" s="78" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G268" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H268" s="44"/>
       <c r="I268" s="44"/>
@@ -22635,7 +22614,7 @@
         <v>337</v>
       </c>
       <c r="G269" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H269" s="44"/>
       <c r="I269" s="44"/>
@@ -22678,7 +22657,7 @@
         <v>339</v>
       </c>
       <c r="G270" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H270" s="51"/>
       <c r="I270" s="51"/>
@@ -22715,7 +22694,7 @@
         <v>340</v>
       </c>
       <c r="G271" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H271" s="51"/>
       <c r="I271" s="51"/>
@@ -22750,7 +22729,7 @@
         <v>341</v>
       </c>
       <c r="G272" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H272" s="51"/>
       <c r="I272" s="51"/>
@@ -22785,7 +22764,7 @@
         <v>342</v>
       </c>
       <c r="G273" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H273" s="51"/>
       <c r="I273" s="51"/>
@@ -22820,7 +22799,7 @@
         <v>343</v>
       </c>
       <c r="G274" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H274" s="51"/>
       <c r="I274" s="51"/>
@@ -22855,7 +22834,7 @@
         <v>344</v>
       </c>
       <c r="G275" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H275" s="51"/>
       <c r="I275" s="51"/>
@@ -22892,7 +22871,7 @@
         <v>345</v>
       </c>
       <c r="G276" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H276" s="51"/>
       <c r="I276" s="51"/>
@@ -22927,7 +22906,7 @@
         <v>346</v>
       </c>
       <c r="G277" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H277" s="51"/>
       <c r="I277" s="51"/>
@@ -22962,7 +22941,7 @@
         <v>347</v>
       </c>
       <c r="G278" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H278" s="51"/>
       <c r="I278" s="51"/>
@@ -22997,7 +22976,7 @@
         <v>348</v>
       </c>
       <c r="G279" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H279" s="51"/>
       <c r="I279" s="51"/>
@@ -23032,7 +23011,7 @@
         <v>349</v>
       </c>
       <c r="G280" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H280" s="51"/>
       <c r="I280" s="51"/>
@@ -23063,13 +23042,13 @@
       <c r="C281" s="69"/>
       <c r="D281" s="69"/>
       <c r="E281" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F281" s="66" t="s">
         <v>350</v>
       </c>
       <c r="G281" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H281" s="51"/>
       <c r="I281" s="51"/>
@@ -23110,7 +23089,7 @@
         <v>351</v>
       </c>
       <c r="G282" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H282" s="51"/>
       <c r="I282" s="51"/>
@@ -23153,7 +23132,7 @@
         <v>354</v>
       </c>
       <c r="G283" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H283" s="51"/>
       <c r="I283" s="51"/>
@@ -23188,7 +23167,7 @@
         <v>355</v>
       </c>
       <c r="G284" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H284" s="51"/>
       <c r="I284" s="51"/>
@@ -23227,7 +23206,7 @@
         <v>356</v>
       </c>
       <c r="G285" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H285" s="51"/>
       <c r="I285" s="51"/>
@@ -23262,7 +23241,7 @@
         <v>357</v>
       </c>
       <c r="G286" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H286" s="51"/>
       <c r="I286" s="51"/>
@@ -23303,7 +23282,7 @@
         <v>359</v>
       </c>
       <c r="G287" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H287" s="51"/>
       <c r="I287" s="51"/>
@@ -23340,7 +23319,7 @@
         <v>360</v>
       </c>
       <c r="G288" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H288" s="51"/>
       <c r="I288" s="51"/>
@@ -23377,7 +23356,7 @@
         <v>361</v>
       </c>
       <c r="G289" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H289" s="51"/>
       <c r="I289" s="51"/>
@@ -23414,7 +23393,7 @@
         <v>362</v>
       </c>
       <c r="G290" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H290" s="51"/>
       <c r="I290" s="51"/>
@@ -23453,7 +23432,7 @@
         <v>363</v>
       </c>
       <c r="G291" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H291" s="51"/>
       <c r="I291" s="51"/>
@@ -23488,7 +23467,7 @@
         <v>364</v>
       </c>
       <c r="G292" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H292" s="51"/>
       <c r="I292" s="51"/>
@@ -23525,7 +23504,7 @@
         <v>365</v>
       </c>
       <c r="G293" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H293" s="51"/>
       <c r="I293" s="51"/>
@@ -23560,7 +23539,7 @@
         <v>366</v>
       </c>
       <c r="G294" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H294" s="51"/>
       <c r="I294" s="51"/>
@@ -23592,10 +23571,10 @@
       <c r="D295" s="70"/>
       <c r="E295" s="70"/>
       <c r="F295" s="66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G295" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H295" s="51"/>
       <c r="I295" s="51"/>
@@ -23630,7 +23609,7 @@
         <v>367</v>
       </c>
       <c r="G296" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H296" s="51"/>
       <c r="I296" s="51"/>
@@ -23665,7 +23644,7 @@
         <v>368</v>
       </c>
       <c r="G297" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H297" s="51"/>
       <c r="I297" s="51"/>
@@ -23700,7 +23679,7 @@
         <v>369</v>
       </c>
       <c r="G298" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H298" s="51"/>
       <c r="I298" s="51"/>
@@ -23735,7 +23714,7 @@
         <v>370</v>
       </c>
       <c r="G299" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H299" s="51"/>
       <c r="I299" s="51"/>
@@ -23770,7 +23749,7 @@
         <v>371</v>
       </c>
       <c r="G300" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H300" s="51"/>
       <c r="I300" s="51"/>
@@ -23805,7 +23784,7 @@
         <v>372</v>
       </c>
       <c r="G301" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H301" s="51"/>
       <c r="I301" s="51"/>
@@ -23840,7 +23819,7 @@
         <v>373</v>
       </c>
       <c r="G302" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H302" s="51"/>
       <c r="I302" s="51"/>
@@ -23875,7 +23854,7 @@
         <v>374</v>
       </c>
       <c r="G303" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H303" s="51"/>
       <c r="I303" s="51"/>
@@ -23912,7 +23891,7 @@
         <v>375</v>
       </c>
       <c r="G304" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H304" s="51"/>
       <c r="I304" s="51"/>
@@ -23947,7 +23926,7 @@
         <v>376</v>
       </c>
       <c r="G305" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H305" s="51"/>
       <c r="I305" s="51"/>
@@ -23982,7 +23961,7 @@
         <v>377</v>
       </c>
       <c r="G306" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H306" s="51"/>
       <c r="I306" s="51"/>
@@ -24017,7 +23996,7 @@
         <v>378</v>
       </c>
       <c r="G307" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H307" s="51"/>
       <c r="I307" s="51"/>
@@ -24052,7 +24031,7 @@
         <v>379</v>
       </c>
       <c r="G308" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H308" s="51"/>
       <c r="I308" s="51"/>
@@ -24087,7 +24066,7 @@
         <v>380</v>
       </c>
       <c r="G309" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H309" s="51"/>
       <c r="I309" s="51"/>
@@ -24124,7 +24103,7 @@
         <v>381</v>
       </c>
       <c r="G310" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H310" s="51"/>
       <c r="I310" s="51"/>
@@ -24159,7 +24138,7 @@
         <v>382</v>
       </c>
       <c r="G311" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H311" s="51"/>
       <c r="I311" s="51"/>
@@ -24194,7 +24173,7 @@
         <v>383</v>
       </c>
       <c r="G312" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H312" s="51"/>
       <c r="I312" s="51"/>
@@ -24229,7 +24208,7 @@
         <v>384</v>
       </c>
       <c r="G313" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H313" s="51"/>
       <c r="I313" s="51"/>
@@ -24264,7 +24243,7 @@
         <v>385</v>
       </c>
       <c r="G314" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H314" s="51"/>
       <c r="I314" s="51"/>
@@ -24299,7 +24278,7 @@
         <v>386</v>
       </c>
       <c r="G315" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H315" s="51"/>
       <c r="I315" s="51"/>
@@ -24334,7 +24313,7 @@
         <v>387</v>
       </c>
       <c r="G316" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H316" s="51"/>
       <c r="I316" s="51"/>
@@ -24369,7 +24348,7 @@
         <v>388</v>
       </c>
       <c r="G317" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H317" s="51"/>
       <c r="I317" s="51"/>
@@ -24406,7 +24385,7 @@
         <v>389</v>
       </c>
       <c r="G318" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H318" s="51"/>
       <c r="I318" s="51"/>
@@ -24452,7 +24431,7 @@
       <c r="H319" s="51"/>
       <c r="I319" s="51"/>
       <c r="J319" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K319" s="61"/>
       <c r="L319" s="51"/>
@@ -24487,7 +24466,7 @@
       <c r="H320" s="51"/>
       <c r="I320" s="51"/>
       <c r="J320" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K320" s="61"/>
       <c r="L320" s="51"/>
@@ -24522,7 +24501,7 @@
       <c r="H321" s="51"/>
       <c r="I321" s="51"/>
       <c r="J321" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K321" s="61"/>
       <c r="L321" s="51"/>
@@ -24557,7 +24536,7 @@
       <c r="H322" s="51"/>
       <c r="I322" s="51"/>
       <c r="J322" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K322" s="61"/>
       <c r="L322" s="51"/>
@@ -24598,7 +24577,7 @@
       <c r="H323" s="51"/>
       <c r="I323" s="51"/>
       <c r="J323" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K323" s="61"/>
       <c r="L323" s="51"/>
@@ -24635,7 +24614,7 @@
       <c r="H324" s="51"/>
       <c r="I324" s="51"/>
       <c r="J324" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K324" s="61"/>
       <c r="L324" s="51"/>
@@ -24672,7 +24651,7 @@
       <c r="H325" s="51"/>
       <c r="I325" s="51"/>
       <c r="J325" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K325" s="61"/>
       <c r="L325" s="51"/>
@@ -24709,7 +24688,7 @@
       <c r="H326" s="51"/>
       <c r="I326" s="51"/>
       <c r="J326" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K326" s="61"/>
       <c r="L326" s="51"/>
@@ -24748,7 +24727,7 @@
       <c r="H327" s="51"/>
       <c r="I327" s="51"/>
       <c r="J327" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K327" s="61"/>
       <c r="L327" s="51"/>
@@ -24783,7 +24762,7 @@
       <c r="H328" s="51"/>
       <c r="I328" s="51"/>
       <c r="J328" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K328" s="61"/>
       <c r="L328" s="51"/>
@@ -24818,7 +24797,7 @@
       <c r="H329" s="51"/>
       <c r="I329" s="51"/>
       <c r="J329" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K329" s="61"/>
       <c r="L329" s="51"/>
@@ -24847,13 +24826,13 @@
       <c r="D330" s="70"/>
       <c r="E330" s="70"/>
       <c r="F330" s="66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G330" s="61"/>
       <c r="H330" s="51"/>
       <c r="I330" s="51"/>
       <c r="J330" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K330" s="61"/>
       <c r="L330" s="51"/>
@@ -24882,13 +24861,13 @@
       <c r="D331" s="70"/>
       <c r="E331" s="70"/>
       <c r="F331" s="66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G331" s="61"/>
       <c r="H331" s="51"/>
       <c r="I331" s="51"/>
       <c r="J331" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K331" s="61"/>
       <c r="L331" s="51"/>
@@ -24917,13 +24896,13 @@
       <c r="D332" s="70"/>
       <c r="E332" s="70"/>
       <c r="F332" s="66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G332" s="61"/>
       <c r="H332" s="51"/>
       <c r="I332" s="51"/>
       <c r="J332" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K332" s="61"/>
       <c r="L332" s="51"/>
@@ -24952,13 +24931,13 @@
       <c r="D333" s="70"/>
       <c r="E333" s="70"/>
       <c r="F333" s="66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G333" s="61"/>
       <c r="H333" s="51"/>
       <c r="I333" s="51"/>
       <c r="J333" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K333" s="61"/>
       <c r="L333" s="51"/>
@@ -24993,7 +24972,7 @@
       <c r="H334" s="51"/>
       <c r="I334" s="51"/>
       <c r="J334" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K334" s="61"/>
       <c r="L334" s="51"/>
@@ -25028,7 +25007,7 @@
       <c r="H335" s="51"/>
       <c r="I335" s="51"/>
       <c r="J335" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K335" s="61"/>
       <c r="L335" s="51"/>
@@ -25069,31 +25048,31 @@
       </c>
       <c r="G336" s="48"/>
       <c r="H336" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="I336" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="I336" s="49" t="s">
+      <c r="J336" s="49" t="s">
         <v>609</v>
       </c>
-      <c r="J336" s="49" t="s">
+      <c r="K336" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="K336" s="49" t="s">
-        <v>611</v>
-      </c>
       <c r="L336" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M336" s="49">
         <v>6</v>
       </c>
       <c r="N336" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O336" s="122">
         <v>44854</v>
       </c>
       <c r="P336" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q336" s="49"/>
       <c r="R336" s="49"/>
@@ -25120,31 +25099,31 @@
       </c>
       <c r="G337" s="48"/>
       <c r="H337" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="I337" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="I337" s="49" t="s">
-        <v>609</v>
-      </c>
       <c r="J337" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="K337" s="49" t="s">
         <v>612</v>
       </c>
-      <c r="K337" s="49" t="s">
-        <v>613</v>
-      </c>
       <c r="L337" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M337" s="49">
         <v>6</v>
       </c>
       <c r="N337" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O337" s="122">
         <v>44854</v>
       </c>
       <c r="P337" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q337" s="49"/>
       <c r="R337" s="49"/>
@@ -25173,7 +25152,7 @@
       <c r="H338" s="51"/>
       <c r="I338" s="51"/>
       <c r="J338" s="51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K338" s="51"/>
       <c r="L338" s="51"/>
@@ -25208,7 +25187,7 @@
       <c r="H339" s="51"/>
       <c r="I339" s="51"/>
       <c r="J339" s="51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K339" s="51"/>
       <c r="L339" s="51"/>
@@ -25245,7 +25224,7 @@
       <c r="H340" s="51"/>
       <c r="I340" s="51"/>
       <c r="J340" s="51" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K340" s="51"/>
       <c r="L340" s="51"/>
@@ -25282,7 +25261,7 @@
       <c r="H341" s="51"/>
       <c r="I341" s="51"/>
       <c r="J341" s="51" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K341" s="51"/>
       <c r="L341" s="51"/>
@@ -25316,7 +25295,7 @@
         <v>419</v>
       </c>
       <c r="G342" s="61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H342" s="51"/>
       <c r="I342" s="51"/>
@@ -25353,7 +25332,7 @@
         <v>421</v>
       </c>
       <c r="G343" s="61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H343" s="51"/>
       <c r="I343" s="51"/>
@@ -25395,7 +25374,7 @@
       <c r="H344" s="51"/>
       <c r="I344" s="51"/>
       <c r="J344" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K344" s="51"/>
       <c r="L344" s="51"/>
@@ -25430,7 +25409,7 @@
       <c r="H345" s="51"/>
       <c r="I345" s="51"/>
       <c r="J345" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K345" s="51"/>
       <c r="L345" s="51"/>
@@ -25465,7 +25444,7 @@
       <c r="H346" s="51"/>
       <c r="I346" s="51"/>
       <c r="J346" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K346" s="51"/>
       <c r="L346" s="51"/>
@@ -25504,7 +25483,7 @@
       <c r="H347" s="51"/>
       <c r="I347" s="51"/>
       <c r="J347" s="51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K347" s="51"/>
       <c r="L347" s="51"/>
@@ -25539,7 +25518,7 @@
       <c r="H348" s="51"/>
       <c r="I348" s="51"/>
       <c r="J348" s="51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K348" s="51"/>
       <c r="L348" s="51"/>
@@ -25574,7 +25553,7 @@
       <c r="H349" s="51"/>
       <c r="I349" s="51"/>
       <c r="J349" s="51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K349" s="51"/>
       <c r="L349" s="51"/>
@@ -25613,7 +25592,7 @@
       <c r="H350" s="51"/>
       <c r="I350" s="51"/>
       <c r="J350" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K350" s="51"/>
       <c r="L350" s="51"/>
@@ -25648,7 +25627,7 @@
       <c r="H351" s="51"/>
       <c r="I351" s="51"/>
       <c r="J351" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K351" s="51"/>
       <c r="L351" s="51"/>
@@ -25683,7 +25662,7 @@
       <c r="H352" s="51"/>
       <c r="I352" s="51"/>
       <c r="J352" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K352" s="51"/>
       <c r="L352" s="51"/>
@@ -25718,7 +25697,7 @@
       <c r="H353" s="51"/>
       <c r="I353" s="51"/>
       <c r="J353" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K353" s="51"/>
       <c r="L353" s="51"/>
@@ -25753,7 +25732,7 @@
       <c r="H354" s="51"/>
       <c r="I354" s="51"/>
       <c r="J354" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K354" s="51"/>
       <c r="L354" s="51"/>
@@ -25788,7 +25767,7 @@
       <c r="H355" s="51"/>
       <c r="I355" s="51"/>
       <c r="J355" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K355" s="51"/>
       <c r="L355" s="51"/>
@@ -25823,7 +25802,7 @@
       <c r="H356" s="51"/>
       <c r="I356" s="51"/>
       <c r="J356" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K356" s="51"/>
       <c r="L356" s="51"/>
@@ -25858,7 +25837,7 @@
       <c r="H357" s="51"/>
       <c r="I357" s="51"/>
       <c r="J357" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K357" s="51"/>
       <c r="L357" s="51"/>
@@ -25901,7 +25880,7 @@
       <c r="H358" s="51"/>
       <c r="I358" s="51"/>
       <c r="J358" s="51" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K358" s="51"/>
       <c r="L358" s="51"/>
@@ -25944,7 +25923,7 @@
       <c r="H359" s="51"/>
       <c r="I359" s="51"/>
       <c r="J359" s="51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K359" s="51"/>
       <c r="L359" s="51"/>
@@ -26010,7 +25989,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -26020,17 +25999,17 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>18</v>
@@ -26080,7 +26059,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>12</v>
@@ -26143,7 +26122,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="111"/>
       <c r="H11" s="105" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I11" s="105"/>
       <c r="J11" s="112"/>
@@ -26177,7 +26156,7 @@
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
       <c r="H12" s="105" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I12" s="105"/>
       <c r="J12" s="112"/>
@@ -26204,16 +26183,16 @@
       </c>
       <c r="B13" s="115"/>
       <c r="C13" s="116" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E13" s="117"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="118"/>
@@ -26241,13 +26220,13 @@
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
       <c r="D14" s="117" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E14" s="117"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I14" s="60"/>
       <c r="J14" s="118"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FF788-49C5-47E2-9A67-F744A634A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16B371-6B90-4C39-9F52-7C95B82F83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9171,6 +9171,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9269,93 +9356,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9902,22 +9902,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>397668</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594518</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEFE688-A634-4911-A480-125EC7462388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533A1C1D-33D9-4EE0-A53C-79FBE330E2E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9925,8 +9925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="1724025"/>
-          <a:ext cx="10922793" cy="2876550"/>
+          <a:off x="2266950" y="1828800"/>
+          <a:ext cx="10900568" cy="3140074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9954,9 +9954,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>該当処理なし</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取引単体テストで確認が必要な観点なし。リクエスト単体テストで品質担保する。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10876,57 +10885,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="159" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="139" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="148" t="s">
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="177" t="s">
         <v>635</v>
       </c>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="124" t="s">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="126" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="155" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="133" t="str">
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="162" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="22"/>
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
@@ -10934,53 +10943,53 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="159" t="s">
         <v>475</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="124" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="136" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="133" t="str">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="162" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
@@ -10988,45 +10997,45 @@
       <c r="AN2" s="22"/>
     </row>
     <row r="3" spans="1:40" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="130" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="159" t="s">
         <v>477</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="22"/>
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
@@ -11063,1020 +11072,1181 @@
       <c r="A7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="138"/>
+      <c r="D7" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="139"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="157" t="s">
+      <c r="H7" s="139"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="157" t="s">
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="157" t="s">
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="138"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="169"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="149"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="131"/>
+      <c r="AH9" s="131"/>
+      <c r="AI9" s="132"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="131"/>
+      <c r="AH10" s="131"/>
+      <c r="AI10" s="132"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="132"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="132"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="132"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="131"/>
+      <c r="AI14" s="132"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="135"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="131"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="132"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="134"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="135"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="132"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="132"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="132"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="132"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="135"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="131"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="132"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="132"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="135"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="132"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="134"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="131"/>
+      <c r="AH23" s="131"/>
+      <c r="AI23" s="132"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="135"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="131"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="132"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="132"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="135"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="132"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="135"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="131"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="132"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="134"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="131"/>
+      <c r="AH28" s="131"/>
+      <c r="AI28" s="132"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="135"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="131"/>
+      <c r="AH29" s="131"/>
+      <c r="AI29" s="132"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="135"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="131"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="132"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="131"/>
+      <c r="AH31" s="131"/>
+      <c r="AI31" s="132"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="135"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="132"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="131"/>
+      <c r="AH33" s="131"/>
+      <c r="AI33" s="132"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -12095,167 +12265,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -26102,7 +26111,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C11)&gt;0)*ROW($C$11:C11),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D11),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H11),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -26140,7 +26149,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C12)&gt;0)*ROW($C$11:C12),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D12),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H12),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -26174,7 +26183,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C13)&gt;0)*ROW($C$11:C13),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D13),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H13),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -26210,7 +26219,7 @@
 _xlpm.直近で確認観点1が空でないセルの行番号, MAX(INDEX((LEN($C$11:C14)&gt;0)*ROW($C$11:C14),0)),
 _xlpm.確認観点2数, COUNTA(INDIRECT("D"&amp;_xlpm.直近で確認観点1が空でないセルの行番号):D14),
 _xlpm.確認観点2数（確認観点2が空の場合は1）,IF(_xlpm.確認観点2数=0,1,_xlpm.確認観点2数),
-_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0)),
+_xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0),_xlpm.直近で確認観点1が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("H"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):H14),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点1が空でないセルの行番号&gt;_xlpm.直近で確認観点2が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点1数&amp;"-"&amp;_xlpm.確認観点2数（確認観点2が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16B371-6B90-4C39-9F52-7C95B82F83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBF135C-A57C-4059-A3BD-62E51685B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="641">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8320,17 +8320,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テストターゲット名：BA1060101</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>数値項目に有効範囲の下限値－1が入力された場合、エラーとなること。</t>
     <rPh sb="10" eb="12">
       <t>カゲン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストターゲット名：期間内プロジェクト一覧ファイル作成</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストID：BA1060101</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12334,7 +12338,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>19</v>
@@ -12344,7 +12348,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="26" t="s">
+        <v>640</v>
+      </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -12913,7 +12919,7 @@
       <c r="D24" s="71"/>
       <c r="E24" s="69"/>
       <c r="F24" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>443</v>
